--- a/Sprint#3/Pruebas Individuales/Log pruebas individuales RF-28.xlsx
+++ b/Sprint#3/Pruebas Individuales/Log pruebas individuales RF-28.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documents\GitHub\SIGAB\Sprint#2\Pruebas Individuales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivane\OneDrive\Documentos\GitHub\SIGAB\Sprint#3\Pruebas Individuales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E71F121-6647-435F-966D-654A138F67F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8927747-73DC-4D48-8087-ECA0D25D4896}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF637D33-BA58-4CB0-B19F-1F4A4D7557B5}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FF637D33-BA58-4CB0-B19F-1F4A4D7557B5}"/>
   </bookViews>
   <sheets>
-    <sheet name="RF 11" sheetId="1" r:id="rId1"/>
-    <sheet name="Datos de prueba" sheetId="4" r:id="rId2"/>
+    <sheet name="RF 28" sheetId="1" r:id="rId1"/>
+    <sheet name="Datos de prueba" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,21 +31,12 @@
     <author>tc={69A282DF-6FCF-4C4E-9FD9-A5DE37332F75}</author>
   </authors>
   <commentList>
-    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{69A282DF-6FCF-4C4E-9FD9-A5DE37332F75}">
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{69A282DF-6FCF-4C4E-9FD9-A5DE37332F75}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     Estos son ejemplos, deben sustutuirse por los casos de prueba que entregue el Product Owner al equipo desarrollador</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -53,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>Observación</t>
   </si>
@@ -108,184 +99,122 @@
     <t>X</t>
   </si>
   <si>
-    <t>Registrar personal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los campos obligatorios deben de contar con ayudas que guíen al usuario el tipo de información que se debe digitar en los campos. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algunos de los campos deben de cambiar el tipo de ayuda, dicho texto se enviará por correo. </t>
-  </si>
-  <si>
     <t>EN LA SEGUNA HOJA</t>
   </si>
   <si>
-    <t xml:space="preserve">Freddy </t>
-  </si>
-  <si>
-    <t>Oviedo González</t>
-  </si>
-  <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>foviedog@gmail.com</t>
-  </si>
-  <si>
-    <t>foviedo@una.ac.cr</t>
-  </si>
-  <si>
-    <t>Casado</t>
-  </si>
-  <si>
-    <t>Santa Lucía de Barva, Heredia. Del consultorio del Dr.Naranjo 200 metros Este y 25 metros Sur.</t>
-  </si>
-  <si>
-    <t>Maestría</t>
-  </si>
-  <si>
-    <t>Tecnología e Innovación educativa</t>
-  </si>
-  <si>
-    <t>Propietario</t>
-  </si>
-  <si>
-    <t>Categoria 32 (Profesional Asistencial en Desarrollo Tecnológico)</t>
-  </si>
-  <si>
-    <t>Tiempo completo</t>
-  </si>
-  <si>
-    <t>Administrativo</t>
-  </si>
-  <si>
-    <t>Profesional Asistencial en Desarrollo Tecnológico</t>
-  </si>
-  <si>
-    <t>Instituto de Capacitación y Asesoría en Informática (ICAI) de la Universidad Nacional, Cargo Instructor de cursos de capacitación Diseño de páginas Web nivel principiante, 2004-2005, Paquete completo Web (Nivel I, II y III) 2007; Universidad Nacional, Decanato de la Facultad de Filosofía y Letras, 2004 al 2008, cargo: Profesor Instructor Bachiller; Participación en el proyecto de la Colección Bibliográfica Electrónica de la Escuela de Filosofía de la Universidad Nacional; Apoyo Informático y administrativo a las Unidades Académicas de la Facultad de Filosofía y Letras, soporte técnico, mantenimiento de equipos, Instalación y desarrollo de software; Profesional Asistencial en Desarrollo Tecnológico Del 2008 a la fecha.</t>
-  </si>
-  <si>
-    <t>Periodo laborado: 2006 al 2014 Cursos impartidos en la Escuela de Bibliotecología, Documentación e Información, de la Universidad Nacional: Gestión de Recursos Tecnológicos;	Proyectos Tecnológicos; Teoría de Sistemas; Metodologías y Prácticas de Tecnologías de la Información y la Comunicación; Gestión de Tecnología de la Información y Comunicación; Sistemas Colaborativos para educación (Licenciatura en Bibliotecología pedagógica); Unidades de Información Documental Virtuales; Sistemas Colaborativos (Bachillerato en Bibliotecología y Documentación).</t>
-  </si>
-  <si>
-    <t>Bases para el disño de archivos digitales sonoros, Universidad Nacional (2018); Producción de videos educativos, Universidad Nacional (2018); Herramientas en línea para el trabajo colaborativo (2018); Diseño pdagógico y metodológico de cursos virtuales y bimodales (2018); Curso de inglés conversacional
-Curso de Microsoft Excel(2019); Capacitación sobre herramientas para hacer evaluaciones en línea; Taller producción audiovisual (2018 ); Capacitación sobre Aula Virtual(2019) Capacitación sobre Microsoft TEAMS(2020).</t>
-  </si>
-  <si>
-    <t>Oviedo González, F. (2012), Arquetipos bibliotecarios: diseño de una propuesta didáctica multimedia que contribuya con la mejora de la imagen de la bibliotecología en la sociedad costarricense, Revista Bibliotecas Vol. 30, No. 1ene.-jun., 2012. Disponible en: http://www.revistas.una.ac.cr/index.php/bibliotecas/article/view/3891;
-Oviedo González Freddy. (2014), El uso de las TIC en la carrera de Bibliotecología y Documentación, Revista Bibliotecas Vol. 32, No. 2 jul-dic., 2014 pp.16-31. Disponible en: http://www.revistas.una.ac.cr/index.php/bibliotecas/article/view/6457; Oviedo González Freddy. Zúñiga Benavides José F. (2015), Experiencia en la incorporación de recursos web en la plataforma educativa de la Universidad Nacional, Memoria del IV Foro de Innovación Académica. 2015. pp.279-287. Disponible en: http://www.fai.una.ac.cr/images/Memoria.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manejo Intrumental del Inglés </t>
-  </si>
-  <si>
-    <t>Miembro de la Comisión para atención de emergencias en la FFL</t>
-  </si>
-  <si>
-    <t>Rodríguez, N. (2014). Evaluación de la accesibilidad a la información de las personas con discapacidad visual en los Sitios Web de los Ministerios de Costa Rica.: Universidad Nacional;Peña, L., (2016). Evaluación de Bibliotecas Digitales, Electrónicas y Virtuales Universitarias de Iberoamérica. Heredia, C. R.: Universidad Nacional.</t>
-  </si>
-  <si>
-    <t>Cambronero, D., Fonseca, J., Zamora, K &amp; Zuñiga, D. (2014). La integración efectiva entre la Escuela La Aurora, Herdia, Costa Rica, y su biblioteca: un espacio de aprendizaje.: Universidad Nacional; Cruz, A., (2014) Repositorio de las publicaciones técnico-científicas en la comunidad de practica sobre el enfoque ecosistemico en salud Humana - América Latina y el Caribe, Instituto regional de Estudios en sustancias toxicas, Universidad Nación; Guerrero, G., Mesén, K &amp; Rojas, C. (2014). Propuesta de un plan de promoción y divulgación
-para las bibliotecas públicas de la provincia de Heredia aplicando tecnologías de la información y comunicación. Heredia, C. R.: Universidad Nacional; Tinoco, A., (2016). Tutoriales virtuales para el uso de las bases de datos Annual Reviews,
-EBSCO y ProQuest para la comunidad Universitaria de la Sede Interuniversitaria de Alajuela compuesta por estudiantes de la Universidad de Costa Rica, el Instituto Tecnológico de Costa Rica, la Universidad Nacional y la Universidad Estatal a Distancia. Heredia, C. R.: Universidad Nacional; Chanto, E &amp; Arroyo, T. (2017). Evaluación de los documentos impresos de las áreas de obras generales (000), Ciencias Sociales, Ciencias políticas (300), Lenguaje, lingüística (400) Ciencias Puras (500), Ciencias aplicadas (600) de la Biblioteca Luis Ferrero Acosta de la Sede del pacífico de la Universidad de Costa Rica.: Universidad Nacional; Navarro, E (2019). Repositorio de Trabajos Finales de Graduación de la Universidad Central, Aprobados durante los años comprendidos del 2014 al 2016.</t>
-  </si>
-  <si>
-    <t>Tecnologías de la Información y de la Comunicación</t>
-  </si>
-  <si>
-    <t>Mejor promedio de posgrados 2011; Estudiante distinguido 2011 de la Maestría en Tecnología e Informática Educativa; Mención CUM LAUDE en la Maestría en Tecnología e Informática Educativa; Docente exitoso de la Universidad Nacional (evaluación del desempeño docente excelente de 2008 – 2013); Docente exitoso de la Universidad Nacional (período 2013-2014) Universidad Nacional.</t>
-  </si>
-  <si>
-    <t>Ana Magally</t>
-  </si>
-  <si>
-    <t>Campos Méndez</t>
-  </si>
-  <si>
-    <t>Femenino</t>
-  </si>
-  <si>
-    <t>magally.campos.mendez@una.cr</t>
-  </si>
-  <si>
-    <t>Casada</t>
-  </si>
-  <si>
-    <t>Heredia. Urbanización Monte Rosa. Casa 176 E</t>
-  </si>
-  <si>
-    <t>Administración de Proyectos Informáticos</t>
-  </si>
-  <si>
-    <t>Propietaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operadora de Computadoras. Universidad Nacional Períodos de Matrícula Departamento de Registro;Operadora de Computadoras. Constructora Edificadora Roma Departamento de Contabilidad;Asistente Académico 1.Laboratorio de Oceanografía y Manejo Costero (LAOCOS). Universidad Nacional Procesamiento de Imágenes;Administradora de Novell 3.11. Laboratorio de Informática. Soporte de la Red Novell. Universidad Nacional;Administradora de Novell 4.10. Laboratorio de Informática. Soporte de la Red Novell. Universidad Nacional. Instalación y Mantenimiento de la Red Administración General (Usuarios, Seguridad etc.);Asistente Académico. Laboratorio Informática/Matemática. Soporte, mantenimiento de máquinas e instalación de programas. Universidad Nacional;Técnico2 en Informática. Centro de Cómputo. Capacitación Developer/2000 (Form Builder y Report Builder), Capacitación en Oracle9i Designer, Administradora de los Servidores de Imágenes y Archivos Proceso de Digitalización Universidad Nacional;Profesional Asistencial en Desarrollo Tecnológico. Escuela de Bibliotecología, Documentación e Información.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Académica Curso de Teoría de Sistemas. BGE418. Escuela de Bibliotecología, Documentación e Información;Académica Curso Sistemas Colaborativos. BGE421. Escuela de Bibliotecología, Documentación e Información;Académica Curso Teoría de Sistemas BGE418 IV Nivel Tutoría. Escuela de Bibliotecología, Documentación e Información;Académica Curso Sistemas de Información. Nivel Licenciatura. Escuela de Bibliotecología, Documentación e Información;Lectora de la tesis denominada “Repositorio de las publicaciones técnico científicas en la comunidad de práctica sobre el enfoque ecosistémico en salud humana –América latina y el Caribe, Instituto Regional de Estudios en Sustancias Tóxicas, Universidad Nacional”;Lectora de la Tesis denominada “Repositorio de trabajos finales de graduación de la Universidad Central aprobados durante los años comprendidos del 2014 al 2016, Universidad Nacional.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modelo y Diseño de Base de Datos, 08/11/1998 Oficentro Ejecutivo de Oracle;Introduccion a Oracle: SQL/PL/SQL utilizando Procedure Builder, 15/06/1998 al 26/06/1998 Oficentro Ejecutivo de Oracle;Developer /2000:Reports 2.5, 15 /07/1998 al 22/07/1998, Oficentro Ejecutivo de Oracle; Developer/2000: Forms 4.5 I Parte, 01/07/1998 al 14/07/1998, Oficentro Ejecutivo de Oracle; Modelo y Diseño de Bases de Datos, 12/07/1999 al 13/07/1999 Oficentro Ejecutivo de Oracle;Introduccion a Oracle: Sql y PL/SQL utilizando Procedure Builder, 14/07/1999 al 20/07/1999, Oficentro Ejecutivo de Oracle; Developer/2000: Build Reports, 28/07/1999 al 30/07/1999, Oficentro Ejecutivo de Oracle;Aplication Development 2, Enero 2000, Oficentro Ejecutivo Oracle;Power Builder Version 7.0, 05/08/2002 al 26/08/2002, Universidad Nacional;Oracle 9i Designer: Forms Design and Generation, 17/02/2003 al 21/02/2003, Oficentro Ejecutivo de Oracle;Pedagogia Universitaria, 29/08/2005 al 07/12/2005, Universidad Nacional;Flash Nivel I, 25/01/2007 al 22/03/2007, Universidad Nacional;Flash Nivel II, 29/03/2007 al 31/05/2007, Universidad Nacional;Introducción a la Informática basado en Software Libre, 24/11/2008 al 12/12/2008, Universidad Nacional;Programación PHP, 24 y 31 de octubre, 7, 14 y 21 de noviembre de 2009, Universidad Nacional;Manejo Instrumental del Inglés, 27/09/2012, Universidad Nacional; Curso Desarrollo de Habilidades Pedagógicas y Técnicas en el uso de las  Pizarras Digitales Interactivas, 06,13,20 y 27 de mayo de 2014;Curso Desarrollo de habilidades pedagógicas y técnicas en el uso PDI, julio del 2014. Universidad Nacional; Curso Uso de Herramientas Avanzadas del Aula Virtual: Videoconferencias, 04/02/2015, Universidad Nacional;Redacción de documentos. 01/03/2016 al 26/04/2016. Universidad Nacional
-</t>
-  </si>
-  <si>
-    <t>Miranda, G. y Campos, M. (2013). Integración de tecnología y pedagogía en la Biblioteca Infantil “Miriam Álvarez Brenes” de la Universidad Nacional. Bibliotecas. 31(1)Recuperado de: http://www.revistas.una.ac.cr/index.php/bibliotecas/article/view/5107;Campos, M. (2013). La mediación pedagógica en el uso de las tecnologías de la comunicación e información en la Biblioteca Infantil Miriam Álvarez Brenes y la comunidad indígena de Salitre. Bibliotecas. 3(2) Recuperado de: http://www.revistas.una.ac.cr/index.php/bibliotecas/article/view/5887</t>
-  </si>
-  <si>
-    <t>Manejo instrumental del Inglés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Repositorio de las publicaciones técnico científicas en la comunidad de práctica sobre el enfoque ecosistémico en salud humana –América latina y el Caribe, Instituto Regional de Estudios en Sustancias Tóxicas, Universidad Nacional  (2014);Repositorio de trabajos finales de graduación de la Universidad Central aprobados durante los años comprendidos del 2014 al 2016, Universidad Nacional.(2020)
-</t>
-  </si>
-  <si>
-    <t>Docente Exitoso en la Universidad Nacional Período 2013-2014. 15 de abril del 2015</t>
-  </si>
-  <si>
-    <t>La información del personal que se debe mostar debe ser:
-Nombre
-Apellido
-Cédula
-Fecha nacimiento
-Teléfono fijo
-Teléfono celular
-Correo Personal
-Correo Institucional
-Estado civil
-Dirección de residencia
-Género
-Cargo
-Grado académico
-Tipo de nombramiento 
-Tipo de puesto
-Jornada
-Lugar de trabajo externo
-Año propiedad
-Carga académica 
-Experiencia profesional
-Experiencia académica
-Régimen administrativo
-Régimen docente
-Area de especializacion 1
-Área de especialización 2
-Idiomas
-Participaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Las listas desplegables no muestran correctamente el dato insertado. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">El campo de idiomas debe ser posible enlistar una canidad de "n" de idiomas. </t>
+    <t>Realizar una búsqueda de actividades de promoción de la carrera por filtros.</t>
+  </si>
+  <si>
+    <t>Se debe permitir filtrar las actividades de promoción por un rango de fecha.</t>
+  </si>
+  <si>
+    <t>Se debe permitir filtrar las actividades de promoción por nombre de la actividad.</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de actividad </t>
+  </si>
+  <si>
+    <t>Nombre de la actividad</t>
+  </si>
+  <si>
+    <t>Estado de la actividad (En ejecución, En progreso, Ejecutada)</t>
+  </si>
+  <si>
+    <t>Institución u organizkación patrocinadora</t>
+  </si>
+  <si>
+    <t>Responsable de la actividad</t>
+  </si>
+  <si>
+    <t>Fecha de la actividad</t>
+  </si>
+  <si>
+    <t>Lugar donde se llevó a cabo la actividad</t>
+  </si>
+  <si>
+    <t>Recursos</t>
+  </si>
+  <si>
+    <t>Descripción de la actividad</t>
+  </si>
+  <si>
+    <t>Sistematización o retroalimentación (buenas prácticas, principales resultados, limitaciones)</t>
+  </si>
+  <si>
+    <t>Promoción de la carrera</t>
+  </si>
+  <si>
+    <t>Feria informativa Puertas Abiertas para estudiantes de undécimo año de todo el país</t>
+  </si>
+  <si>
+    <t>Ejecutada</t>
+  </si>
+  <si>
+    <t>Universidad Nacional</t>
+  </si>
+  <si>
+    <t>Juan Pablo Corella Parajales</t>
+  </si>
+  <si>
+    <t>CIDE-UNA</t>
+  </si>
+  <si>
+    <t>Desplegables con el plan de estudios; banner de la carrera; vídeo sobre la carrera; proyector multimedia; computadora</t>
+  </si>
+  <si>
+    <t>Informar al estudiantado de undécimo año de la oferta académica de la EBDI</t>
+  </si>
+  <si>
+    <t>Visita a colegios</t>
+  </si>
+  <si>
+    <t>En ejecución</t>
+  </si>
+  <si>
+    <t>Escuela de Bibliotecología, Documentación e Información</t>
+  </si>
+  <si>
+    <t>Esmeralda Sánchez Duarte; Fabián Calvo Granados</t>
+  </si>
+  <si>
+    <t>Todo el año</t>
+  </si>
+  <si>
+    <t>Colegios públicos y privados</t>
+  </si>
+  <si>
+    <t>Desplegables con el plan de estudios; banner de la carrera; vídeo sobre la carrera; infografía, presentación Power Point; presentación Prezi; proyector multimedia; computadora</t>
+  </si>
+  <si>
+    <t>Promocionar la carrera de Bibliotecología y Gestión de la Información en los colegios de secundaria</t>
+  </si>
+  <si>
+    <t>Uso de redes sociales</t>
+  </si>
+  <si>
+    <t>Lucrecia Barboza; Freddy Oviedo</t>
+  </si>
+  <si>
+    <t>Plataformas de: Facebook, Instangram y Sitio Web de la EBDI</t>
+  </si>
+  <si>
+    <t>Videos; imágenes; frases, articulos; comunicaciones oficiales; manuales; bolsa de empleo; foros digitales; documentos de pruebas de grado</t>
+  </si>
+  <si>
+    <t>Propiciar una efectiva comunicación con los diferentes actores que conforman la
+comunidad EBDI (estudiantes, personal docente, personal administrativo, población
+graduada, empleadores y público en general) mediante el uso de las redes sociales para
+el fortalecimiento de los vínculos entre estas poblaciones y la Escuela</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,28 +283,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -387,8 +296,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -419,8 +335,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -443,13 +365,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -487,46 +421,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -542,9 +440,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{BC52AFE1-0A12-440D-95ED-3DFD3AD6CBC2}"/>
   </cellStyles>
@@ -864,7 +770,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A16" dT="2020-08-29T02:25:38.33" personId="{B52250F9-65D8-4FFF-930F-65C201CB807F}" id="{69A282DF-6FCF-4C4E-9FD9-A5DE37332F75}">
+  <threadedComment ref="A14" dT="2020-08-29T02:25:38.33" personId="{B52250F9-65D8-4FFF-930F-65C201CB807F}" id="{69A282DF-6FCF-4C4E-9FD9-A5DE37332F75}">
     <text>Estos son ejemplos, deben sustutuirse por los casos de prueba que entregue el Product Owner al equipo desarrollador</text>
   </threadedComment>
 </ThreadedComments>
@@ -872,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDCFA43-D090-4464-8DFA-848ABAD3AE83}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,23 +793,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="98.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -913,19 +819,19 @@
       <c r="B3" s="4">
         <v>18</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -937,25 +843,25 @@
         <v>5</v>
       </c>
       <c r="B5" s="12">
-        <v>11</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
+        <v>28</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -963,7 +869,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="10">
-        <v>44117</v>
+        <v>43914</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -979,12 +885,12 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1003,68 +909,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="11"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="11"/>
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
       <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
@@ -1077,17 +973,13 @@
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1105,227 +997,156 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85ED3269-58F8-4DAA-87DF-C50E536FB877}">
-  <dimension ref="A1:AI2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F558CC-1BDC-4039-9069-DEBD85AA899D}">
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="39" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="75" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="34.140625" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" customWidth="1"/>
+    <col min="11" max="11" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="399" x14ac:dyDescent="0.25">
-      <c r="A1" s="17">
-        <v>110770945</v>
-      </c>
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="18">
-        <v>29460</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="C1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="D1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="E1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="17">
-        <v>25624243</v>
-      </c>
-      <c r="I1" s="17">
-        <v>88110706</v>
-      </c>
-      <c r="J1" s="17" t="s">
+      <c r="F1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="G1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="H1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="I1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="J1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="K1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="17" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="199.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="C2" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="D2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="21"/>
-      <c r="U1" s="17">
-        <v>2015</v>
-      </c>
-      <c r="V1" s="23"/>
-      <c r="W1" s="24" t="s">
+      <c r="E2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="F2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="G2" s="25">
+        <v>44150</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="Z1" s="25" t="s">
+      <c r="I2" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="AA1" s="20" t="s">
+      <c r="J2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="AB1" s="20" t="s">
+      <c r="K2" s="17"/>
+    </row>
+    <row r="3" spans="1:11" ht="285" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="AC1" s="25" t="s">
+      <c r="D3" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="25" t="s">
+      <c r="E3" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="AE1" s="25" t="s">
+      <c r="F3" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="26" t="s">
+      <c r="G3" s="26" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" ht="399.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
-        <v>108450068</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="H3" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="I3" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="18">
-        <v>26685</v>
-      </c>
-      <c r="E2" s="17" t="s">
+      <c r="J3" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="K3" s="26"/>
+    </row>
+    <row r="4" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="17">
-        <v>22628427</v>
-      </c>
-      <c r="I2" s="17">
-        <v>83420020</v>
-      </c>
-      <c r="J2" s="17" t="s">
+      <c r="D4" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="G4" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="20" t="s">
+      <c r="I4" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="J4" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17">
-        <v>2005</v>
-      </c>
-      <c r="V2" s="27"/>
-      <c r="W2" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="X2" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y2" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z2" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA2" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="K4" s="17"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F1" r:id="rId1" xr:uid="{CBA9228C-13F4-4E2A-B030-48234561FFA3}"/>
-    <hyperlink ref="G1" r:id="rId2" xr:uid="{DD146E39-838D-44BA-B905-B4CC66D4B5C1}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{894867EB-771D-44F3-ADE7-FD107412CFF7}"/>
-    <hyperlink ref="G2" r:id="rId4" xr:uid="{34E93115-F5D6-4BF6-A0CA-72A339D5BF6B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Sprint#3/Pruebas Individuales/Log pruebas individuales RF-28.xlsx
+++ b/Sprint#3/Pruebas Individuales/Log pruebas individuales RF-28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivane\OneDrive\Documentos\GitHub\SIGAB\Sprint#3\Pruebas Individuales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8927747-73DC-4D48-8087-ECA0D25D4896}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FB6366-6B91-4B3C-865C-FC4A9C8FC412}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FF637D33-BA58-4CB0-B19F-1F4A4D7557B5}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF637D33-BA58-4CB0-B19F-1F4A4D7557B5}"/>
   </bookViews>
   <sheets>
     <sheet name="RF 28" sheetId="1" r:id="rId1"/>
@@ -425,6 +425,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -439,15 +448,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDCFA43-D090-4464-8DFA-848ABAD3AE83}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,23 +793,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="98.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -819,12 +819,12 @@
       <c r="B3" s="4">
         <v>18</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
@@ -845,23 +845,23 @@
       <c r="B5" s="12">
         <v>28</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -869,7 +869,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="10">
-        <v>43914</v>
+        <v>44279</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -885,12 +885,12 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1000,7 +1000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F558CC-1BDC-4039-9069-DEBD85AA899D}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -1018,42 +1018,42 @@
     <col min="11" max="11" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>32</v>
@@ -1070,7 +1070,7 @@
       <c r="F2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="20">
         <v>44150</v>
       </c>
       <c r="H2" s="17" t="s">
@@ -1084,38 +1084,38 @@
       </c>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:11" ht="285" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26" t="s">
+    <row r="3" spans="1:11" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="26"/>
-    </row>
-    <row r="4" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="K3" s="21"/>
+    </row>
+    <row r="4" spans="1:11" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>32</v>

--- a/Sprint#3/Pruebas Individuales/Log pruebas individuales RF-28.xlsx
+++ b/Sprint#3/Pruebas Individuales/Log pruebas individuales RF-28.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivane\OneDrive\Documentos\GitHub\SIGAB\Sprint#3\Pruebas Individuales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FB6366-6B91-4B3C-865C-FC4A9C8FC412}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE45477-C5FE-4EAF-8D24-EB88E539A9CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF637D33-BA58-4CB0-B19F-1F4A4D7557B5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{FF637D33-BA58-4CB0-B19F-1F4A4D7557B5}"/>
   </bookViews>
   <sheets>
     <sheet name="RF 28" sheetId="1" r:id="rId1"/>
     <sheet name="Datos de prueba" sheetId="5" r:id="rId2"/>
+    <sheet name="Firmas" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -465,6 +466,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD6E1AE5-CC38-449A-A62B-080E1BC6A4B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="15182850" cy="26022300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -780,7 +847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDCFA43-D090-4464-8DFA-848ABAD3AE83}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1149,4 +1216,17 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C2C4F9-AE6C-4B7F-8850-3AC7314A7A6F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>